--- a/data/trans_camb/P43-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43-Estudios-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>17.87657109102795</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17.12573239734322</v>
+        <v>17.12573239734323</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12.20364829841413</v>
+        <v>12.35123401400316</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.35360717755454</v>
+        <v>13.84007999573475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.85591006952629</v>
+        <v>13.03530048609916</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.266905545648</v>
+        <v>19.82418030625304</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.98908244405047</v>
+        <v>21.92436299664453</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.89279867744924</v>
+        <v>21.00599989570209</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.3757165543261153</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3599359817873731</v>
+        <v>0.3599359817873733</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2480358780030905</v>
+        <v>0.2501690584444421</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2707639364967724</v>
+        <v>0.2805348995324807</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2612458090288321</v>
+        <v>0.2620429020762967</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4460759675002646</v>
+        <v>0.4364638075321117</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4815632032441687</v>
+        <v>0.4815296743914404</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4690251805473222</v>
+        <v>0.4585988928677378</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.785840862849827</v>
+        <v>3.782755370754197</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.702252304014896</v>
+        <v>9.275181330295169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.45273809290011</v>
+        <v>10.93656488229501</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.96400919681368</v>
+        <v>10.72498635488266</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.19955818051418</v>
+        <v>15.96223943324706</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.79947347376315</v>
+        <v>17.98811920133144</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.4227026702583604</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4828843149198785</v>
+        <v>0.4828843149198783</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1195145357895458</v>
+        <v>0.1200192547566268</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2984400604359171</v>
+        <v>0.2881766763049425</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3551555877441871</v>
+        <v>0.3367117567557033</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3806855425880095</v>
+        <v>0.3728831628714954</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5588301699194802</v>
+        <v>0.5577152378756675</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6267554618648272</v>
+        <v>0.624048537282485</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>9.40104358621655</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22.49681847269146</v>
+        <v>22.49681847269144</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.26698492604639</v>
+        <v>-7.897216809171526</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.982239814827388</v>
+        <v>3.321209895996568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.70966388939473</v>
+        <v>16.81073954153397</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.340475899657403</v>
+        <v>4.977186690119582</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.11071918167088</v>
+        <v>15.60997545710115</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28.02054019414653</v>
+        <v>28.13506747089807</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.2619037919001045</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.6267391497178928</v>
+        <v>0.6267391497178925</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1884942237018327</v>
+        <v>-0.2006613167715192</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.06995643673296165</v>
+        <v>0.08387158511624</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4272480044898706</v>
+        <v>0.4148808654678436</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1637245706417155</v>
+        <v>0.1515948420099127</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4587350821279694</v>
+        <v>0.4737800815358651</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8634925576726727</v>
+        <v>0.8664762139504888</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.898082754364164</v>
+        <v>6.839537961993225</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.642542363264992</v>
+        <v>9.661089623257837</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.01140975676984</v>
+        <v>12.04878244809839</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.46291911061402</v>
+        <v>11.70027526414947</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.25209781613431</v>
+        <v>14.29489351901429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.82944439847457</v>
+        <v>16.78849133726024</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1760576783742635</v>
+        <v>0.1744763965789285</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2481124095512521</v>
+        <v>0.2478420873245634</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3083470019570657</v>
+        <v>0.3082489735953668</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3128126311152427</v>
+        <v>0.3186815445598322</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3886590987235231</v>
+        <v>0.3881426158747956</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4616232680665773</v>
+        <v>0.4553567995271786</v>
       </c>
     </row>
     <row r="28">
